--- a/lab_2/Wykresy.xlsx
+++ b/lab_2/Wykresy.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\Desktop\pamsi_project\lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B100F-AA60-4AC4-8DCC-308DDA990D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042F3CE-CBB3-4063-B19F-D5AE667D7C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1935" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="Matrix" sheetId="2" r:id="rId2"/>
     <sheet name="All" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="results" localSheetId="0">List!$A$1:$D$20</definedName>
   </definedNames>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>List</t>
   </si>
@@ -74,10 +71,13 @@
     <t>Czas [ms]</t>
   </si>
   <si>
-    <t>Czas Lista [ms]</t>
+    <t>Macierz</t>
   </si>
   <si>
-    <t>Czas Macierz [ms]</t>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Stosunek czasów (Macierz/Lista)</t>
   </si>
 </sst>
 </file>
@@ -86,16 +86,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,8 +129,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +150,25 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,48 +183,136 @@
       <right style="thin">
         <color theme="9"/>
       </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="20% — akcent 6" xfId="4" builtinId="50"/>
+    <cellStyle name="40% — akcent 6" xfId="5" builtinId="51"/>
+    <cellStyle name="Akcent 6" xfId="3" builtinId="49"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +475,7 @@
             <c:numRef>
               <c:f>(List!$I$2,List!$I$6,List!$I$10,List!$I$14,List!$I$18)</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.6930000000000002E-3</c:v>
@@ -365,10 +486,10 @@
                 <c:pt idx="2">
                   <c:v>0.57214500000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>15.6998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>77.533299999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -447,7 +568,7 @@
             <c:numRef>
               <c:f>(List!$I$3,List!$I$7,List!$I$11,List!$I$15,List!$I$19)</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.8560000000000001E-3</c:v>
@@ -458,10 +579,10 @@
                 <c:pt idx="2">
                   <c:v>0.57608700000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>17.727599999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>83.29010000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -540,7 +661,7 @@
             <c:numRef>
               <c:f>(List!$I$4,List!$I$8,List!$I$12,List!$I$16,List!$I$20)</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.9589999999999999E-3</c:v>
@@ -551,10 +672,10 @@
                 <c:pt idx="2">
                   <c:v>0.58228100000000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>17.064699999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>80.433099999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -633,7 +754,7 @@
             <c:numRef>
               <c:f>(List!$I$5,List!$I$9,List!$I$13,List!$I$17,List!$I$21)</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.9509999999999997E-3</c:v>
@@ -644,10 +765,10 @@
                 <c:pt idx="2">
                   <c:v>0.58389399999999991</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>16.7377</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>80.311400000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -834,7 +955,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Czas [s]</a:t>
+                  <a:t>Czas [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -868,7 +989,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1035,7 +1156,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>  - Lista</a:t>
+              <a:t>  - Macierz</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1118,7 +1239,7 @@
             <c:numRef>
               <c:f>(Matrix!$G$2,Matrix!$G$6,Matrix!$G$10,Matrix!$G$14,Matrix!$G$18)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1142,7 +1263,7 @@
             <c:numRef>
               <c:f>(Matrix!$I$2,Matrix!$I$6,Matrix!$I$10,Matrix!$I$14,Matrix!$I$18)</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4844999999999999E-2</c:v>
@@ -1153,10 +1274,10 @@
                 <c:pt idx="2">
                   <c:v>1.6456500000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>42.9602</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>159.08199999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1211,7 +1332,7 @@
             <c:numRef>
               <c:f>(Matrix!$G$3,Matrix!$G$7,Matrix!$G$11,Matrix!$G$15,Matrix!$G$19)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1235,7 +1356,7 @@
             <c:numRef>
               <c:f>(Matrix!$I$3,Matrix!$I$7,Matrix!$I$11,Matrix!$I$15,Matrix!$I$19)</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.5193E-2</c:v>
@@ -1246,10 +1367,10 @@
                 <c:pt idx="2">
                   <c:v>1.8229599999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>41.703299999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>161.43199999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1304,7 +1425,7 @@
             <c:numRef>
               <c:f>(Matrix!$G$4,Matrix!$G$8,Matrix!$G$12,Matrix!$G$16,Matrix!$G$20)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1328,7 +1449,7 @@
             <c:numRef>
               <c:f>(Matrix!$I$4,Matrix!$I$8,Matrix!$I$12,Matrix!$I$16,Matrix!$I$20)</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4939999999999998E-2</c:v>
@@ -1339,10 +1460,10 @@
                 <c:pt idx="2">
                   <c:v>1.6960199999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>43.350100000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>166.69400000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,7 +1518,7 @@
             <c:numRef>
               <c:f>(Matrix!$G$5,Matrix!$G$9,Matrix!$G$13,Matrix!$G$17,Matrix!$G$21)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1421,7 +1542,7 @@
             <c:numRef>
               <c:f>(Matrix!$I$5,Matrix!$I$9,Matrix!$I$13,Matrix!$I$17,Matrix!$I$21)</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.5159000000000001E-2</c:v>
@@ -1432,10 +1553,10 @@
                 <c:pt idx="2">
                   <c:v>1.3943700000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>42.721899999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>151.33099999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1445,6 +1566,606 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-9CB1-4599-80FA-819BFA6E65E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378197120"/>
+        <c:axId val="378202368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378197120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378202368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378202368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378197120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyniki</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dla gęstości grafu 25%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$2,All!$A$6,All!$A$10,All!$A$14,All!$A$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$C$2,All!$C$6,All!$C$10,All!$C$14,All!$C$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6930000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14601499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57214500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.6998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.533299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6758-4727-907C-F80E9804D195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$2,All!$A$6,All!$A$10,All!$A$14,All!$A$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$D$2,All!$D$6,All!$D$10,All!$D$14,All!$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4844999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34178799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6456500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.9602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159.08199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6758-4727-907C-F80E9804D195}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1622,7 +2343,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Czas [s]</a:t>
+                  <a:t>Czas [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1656,7 +2377,1807 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378197120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyniki</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dla gęstości grafu 50%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$3,All!$A$7,All!$A$11,All!$A$15,All!$A$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$C$3,All!$C$7,All!$C$11,All!$C$15,All!$C$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8560000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14708000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57608700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.727599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.29010000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F21A-4C85-BB89-A1F3592289DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$2,All!$A$6,All!$A$10,All!$A$14,All!$A$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$D$3,All!$D$7,All!$D$11,All!$D$15,All!$D$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5193E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34368099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8229599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.703299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.43199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F21A-4C85-BB89-A1F3592289DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378197120"/>
+        <c:axId val="378202368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378197120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378202368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378202368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378197120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyniki</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dla gęstości grafu 75%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$3,All!$A$7,All!$A$11,All!$A$15,All!$A$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$C$4,All!$C$8,All!$C$12,All!$C$16,All!$C$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9589999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14563400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58228100000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.064699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.433099999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C894-430D-85C8-B5233418602D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$2,All!$A$6,All!$A$10,All!$A$14,All!$A$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$D$4,All!$D$8,All!$D$12,All!$D$16,All!$D$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4939999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.341503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6960199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.350100000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.69400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C894-430D-85C8-B5233418602D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378197120"/>
+        <c:axId val="378202368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378197120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378202368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378202368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378197120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyniki</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dla grafu pełnego (100%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$3,All!$A$7,All!$A$11,All!$A$15,All!$A$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$C$5,All!$C$9,All!$C$13,All!$C$17,All!$C$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9509999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.141538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58389399999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.311400000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E655-4F82-B700-34E73703E28C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(All!$A$2,All!$A$6,All!$A$10,All!$A$14,All!$A$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(All!$D$5,All!$D$9,All!$D$13,All!$D$17,All!$D$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5159000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34241199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3943700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.721899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.33099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E655-4F82-B700-34E73703E28C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378197120"/>
+        <c:axId val="378202368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378197120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378202368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378202368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1862,6 +4383,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2379,6 +5060,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2978,177 +7723,161 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="MergeSort"/>
-      <sheetName val="QuickSort"/>
-      <sheetName val="IntroSort"/>
-      <sheetName val="Sum"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="10">
-          <cell r="B10">
-            <v>10000</v>
-          </cell>
-          <cell r="C10">
-            <v>50000</v>
-          </cell>
-          <cell r="D10">
-            <v>100000</v>
-          </cell>
-          <cell r="E10">
-            <v>500000</v>
-          </cell>
-          <cell r="F10">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.0650709999999999</v>
-          </cell>
-          <cell r="C12">
-            <v>6.0281553333333333</v>
-          </cell>
-          <cell r="D12">
-            <v>12.343729666666666</v>
-          </cell>
-          <cell r="E12">
-            <v>64.433149</v>
-          </cell>
-          <cell r="F12">
-            <v>131.56365433333335</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.1341789999999998</v>
-          </cell>
-          <cell r="C13">
-            <v>5.912191</v>
-          </cell>
-          <cell r="D13">
-            <v>12.651254333333332</v>
-          </cell>
-          <cell r="E13">
-            <v>64.743204000000006</v>
-          </cell>
-          <cell r="F13">
-            <v>130.91487066666667</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1.4369703333333332</v>
-          </cell>
-          <cell r="C14">
-            <v>8.4742499999999996</v>
-          </cell>
-          <cell r="D14">
-            <v>17.659411333333335</v>
-          </cell>
-          <cell r="E14">
-            <v>106.65638233333334</v>
-          </cell>
-          <cell r="F14">
-            <v>224.03955199999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1.0518886666666667</v>
-          </cell>
-          <cell r="C15">
-            <v>5.6231046666666664</v>
-          </cell>
-          <cell r="D15">
-            <v>11.589331999999999</v>
-          </cell>
-          <cell r="E15">
-            <v>59.386561666666665</v>
-          </cell>
-          <cell r="F15">
-            <v>122.89872333333334</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.0435936666666665</v>
-          </cell>
-          <cell r="C16">
-            <v>5.5711676666666667</v>
-          </cell>
-          <cell r="D16">
-            <v>11.031162333333333</v>
-          </cell>
-          <cell r="E16">
-            <v>58.963068999999997</v>
-          </cell>
-          <cell r="F16">
-            <v>119.09187066666665</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.91692266666666677</v>
-          </cell>
-          <cell r="C17">
-            <v>4.873771333333333</v>
-          </cell>
-          <cell r="D17">
-            <v>10.010019333333332</v>
-          </cell>
-          <cell r="E17">
-            <v>50.076872000000002</v>
-          </cell>
-          <cell r="F17">
-            <v>86.679268666666658</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.76686466666666675</v>
-          </cell>
-          <cell r="C18">
-            <v>3.7938913333333333</v>
-          </cell>
-          <cell r="D18">
-            <v>7.7937863333333333</v>
-          </cell>
-          <cell r="E18">
-            <v>42.107301</v>
-          </cell>
-          <cell r="F18">
-            <v>85.658725666666669</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.71386800000000006</v>
-          </cell>
-          <cell r="C19">
-            <v>3.628995666666667</v>
-          </cell>
-          <cell r="D19">
-            <v>7.9578193333333331</v>
-          </cell>
-          <cell r="E19">
-            <v>38.935034333333334</v>
-          </cell>
-          <cell r="F19">
-            <v>79.323288000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372774</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC254D5-900D-4934-9756-E873A8AF41F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410874</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49BC35D-1AFA-475A-8639-1EB4550AD648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357646</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E7403C-6B7D-4EDD-835C-1600EB53ED3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335235</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99B6939-1418-4DCC-BFA0-FB90EB72D913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3163,39 +7892,49 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C624D1FD-2634-49F9-93DE-B56154BDECD5}" name="Liczba wierzchołków">
-      <calculatedColumnFormula>B1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{DF107FD9-465D-423D-B04A-C3EC8131C5C2}" name="Gęstość grafu [%]" dataCellStyle="Procentowy">
-      <calculatedColumnFormula>C1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{F616EB20-57E7-49A1-8D59-A8605A94741A}" name="Czas [ms]" dataDxfId="1">
-      <calculatedColumnFormula>D1*1000</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{C624D1FD-2634-49F9-93DE-B56154BDECD5}" name="Liczba wierzchołków"/>
+    <tableColumn id="2" xr3:uid="{DF107FD9-465D-423D-B04A-C3EC8131C5C2}" name="Gęstość grafu [%]" dataCellStyle="Procentowy"/>
+    <tableColumn id="3" xr3:uid="{F616EB20-57E7-49A1-8D59-A8605A94741A}" name="Czas [ms]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EBA5BD5-FF1F-4F41-9715-17FBAC0C95E3}" name="Tabela1" displayName="Tabela1" ref="G1:I21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EBA5BD5-FF1F-4F41-9715-17FBAC0C95E3}" name="Tabela1" displayName="Tabela1" ref="G1:I21" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="G1:I21" xr:uid="{080C72CB-BB23-460B-AAA3-E5A432EAFAF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{27932513-CD9E-46B5-BC1B-CCC4AC535D2D}" name="Liczba wierzchołków">
-      <calculatedColumnFormula>B1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{27932513-CD9E-46B5-BC1B-CCC4AC535D2D}" name="Liczba wierzchołków" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7DD81357-19BE-420A-9E9C-7BA555FD93C0}" name="Gęstość grafu [%]" dataCellStyle="Procentowy"/>
+    <tableColumn id="3" xr3:uid="{D0044488-32BE-49D5-9806-C6447B1FD9FA}" name="Czas [ms]" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10A14909-CAF0-48B5-8BD9-CD55A26A647A}" name="Tabela3" displayName="Tabela3" ref="A1:D21" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:D21" xr:uid="{C9C9B332-433F-42A2-BA9E-6425CB76BB66}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{422F262D-9C4C-414E-9DFF-8DD723F9980C}" name="Liczba wierzchołków"/>
+    <tableColumn id="2" xr3:uid="{F6DBE4B8-3A8B-4B8A-958B-10045FC36A7A}" name="Gęstość grafu [%]"/>
+    <tableColumn id="3" xr3:uid="{B634F74A-BAA5-4238-86F3-2556411973BF}" name="Lista" dataDxfId="5">
+      <calculatedColumnFormula>List!D1*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7DD81357-19BE-420A-9E9C-7BA555FD93C0}" name="Gęstość grafu [%]" dataCellStyle="Procentowy">
-      <calculatedColumnFormula>C1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{D0044488-32BE-49D5-9806-C6447B1FD9FA}" name="Czas [ms]" dataDxfId="0">
-      <calculatedColumnFormula>D1*1000</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{340FBB42-54C9-40C2-BEBF-7F31E87A5B97}" name="Macierz" dataDxfId="4">
+      <calculatedColumnFormula>Matrix!D1*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3465,7 +8204,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="I21" sqref="G1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +8212,8 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -3490,7 +8230,7 @@
       <c r="C1" s="1">
         <v>0.25</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>6.6930000000000001E-6</v>
       </c>
       <c r="G1" t="s">
@@ -3513,19 +8253,16 @@
       <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>6.8560000000000001E-6</v>
       </c>
-      <c r="G2" s="9">
-        <f>B1</f>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" s="10">
-        <f>C1</f>
+      <c r="H2" s="5">
         <v>0.25</v>
       </c>
-      <c r="I2" s="12">
-        <f t="shared" ref="I2:I4" si="0">D1*1000</f>
+      <c r="I2" s="10">
         <v>6.6930000000000002E-3</v>
       </c>
     </row>
@@ -3539,19 +8276,16 @@
       <c r="C3" s="1">
         <v>0.75</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>6.9589999999999998E-6</v>
       </c>
       <c r="G3">
-        <f>B2</f>
         <v>10</v>
       </c>
-      <c r="H3" s="7">
-        <f>C2</f>
+      <c r="H3" s="5">
         <v>0.5</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
+      <c r="I3" s="10">
         <v>6.8560000000000001E-3</v>
       </c>
     </row>
@@ -3565,19 +8299,16 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6.951E-6</v>
       </c>
       <c r="G4">
-        <f>B3</f>
         <v>10</v>
       </c>
-      <c r="H4" s="7">
-        <f>C3</f>
+      <c r="H4" s="5">
         <v>0.75</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
+      <c r="I4" s="10">
         <v>6.9589999999999999E-3</v>
       </c>
     </row>
@@ -3591,19 +8322,16 @@
       <c r="C5" s="1">
         <v>0.25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.4601499999999999E-4</v>
       </c>
       <c r="G5">
-        <f>B4</f>
         <v>10</v>
       </c>
-      <c r="H5" s="7">
-        <f>C4</f>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <f>D4*1000</f>
+      <c r="I5" s="10">
         <v>6.9509999999999997E-3</v>
       </c>
     </row>
@@ -3617,19 +8345,16 @@
       <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.4708000000000001E-4</v>
       </c>
-      <c r="G6" s="9">
-        <f>B5</f>
+      <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" s="10">
-        <f>C5</f>
+      <c r="H6" s="5">
         <v>0.25</v>
       </c>
-      <c r="I6" s="12">
-        <f>D5*1000</f>
+      <c r="I6" s="10">
         <v>0.14601499999999998</v>
       </c>
     </row>
@@ -3643,23 +8368,20 @@
       <c r="C7" s="1">
         <v>0.75</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.4563400000000001E-4</v>
       </c>
       <c r="G7">
-        <f>B6</f>
         <v>50</v>
       </c>
-      <c r="H7" s="7">
-        <f>C6</f>
+      <c r="H7" s="5">
         <v>0.5</v>
       </c>
-      <c r="I7" s="2">
-        <f>D6*1000</f>
+      <c r="I7" s="10">
         <v>0.14708000000000002</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3671,19 +8393,16 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.41538E-4</v>
       </c>
       <c r="G8">
-        <f>B7</f>
         <v>50</v>
       </c>
-      <c r="H8" s="7">
-        <f>C7</f>
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
-      <c r="I8" s="2">
-        <f>D7*1000</f>
+      <c r="I8" s="10">
         <v>0.14563400000000001</v>
       </c>
     </row>
@@ -3697,19 +8416,16 @@
       <c r="C9" s="1">
         <v>0.25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>5.7214500000000003E-4</v>
       </c>
       <c r="G9">
-        <f>B8</f>
         <v>50</v>
       </c>
-      <c r="H9" s="7">
-        <f>C8</f>
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
-        <f>D8*1000</f>
+      <c r="I9" s="10">
         <v>0.141538</v>
       </c>
     </row>
@@ -3723,19 +8439,16 @@
       <c r="C10" s="1">
         <v>0.5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>5.7608699999999997E-4</v>
       </c>
-      <c r="G10" s="9">
-        <f>B9</f>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="H10" s="10">
-        <f>C9</f>
+      <c r="H10" s="5">
         <v>0.25</v>
       </c>
-      <c r="I10" s="12">
-        <f>D9*1000</f>
+      <c r="I10" s="10">
         <v>0.57214500000000001</v>
       </c>
     </row>
@@ -3749,19 +8462,16 @@
       <c r="C11" s="1">
         <v>0.75</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>5.8228100000000003E-4</v>
       </c>
       <c r="G11">
-        <f>B10</f>
         <v>100</v>
       </c>
-      <c r="H11" s="7">
-        <f>C10</f>
+      <c r="H11" s="5">
         <v>0.5</v>
       </c>
-      <c r="I11" s="2">
-        <f>D10*1000</f>
+      <c r="I11" s="10">
         <v>0.57608700000000002</v>
       </c>
     </row>
@@ -3775,19 +8485,16 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>5.8389399999999995E-4</v>
       </c>
       <c r="G12">
-        <f>B11</f>
         <v>100</v>
       </c>
-      <c r="H12" s="7">
-        <f>C11</f>
+      <c r="H12" s="5">
         <v>0.75</v>
       </c>
-      <c r="I12" s="2">
-        <f>D11*1000</f>
+      <c r="I12" s="10">
         <v>0.58228100000000005</v>
       </c>
     </row>
@@ -3801,23 +8508,20 @@
       <c r="C13" s="1">
         <v>0.25</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1.56998E-2</v>
       </c>
       <c r="G13">
-        <f>B12</f>
         <v>100</v>
       </c>
-      <c r="H13" s="7">
-        <f>C12</f>
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
-        <f>D12*1000</f>
+      <c r="I13" s="10">
         <v>0.58389399999999991</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3829,19 +8533,16 @@
       <c r="C14" s="1">
         <v>0.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1.77276E-2</v>
       </c>
-      <c r="G14" s="9">
-        <f>B13</f>
+      <c r="G14">
         <v>500</v>
       </c>
-      <c r="H14" s="10">
-        <f>C13</f>
+      <c r="H14" s="5">
         <v>0.25</v>
       </c>
-      <c r="I14" s="12">
-        <f>D13*1000</f>
+      <c r="I14" s="2">
         <v>15.6998</v>
       </c>
     </row>
@@ -3855,19 +8556,16 @@
       <c r="C15" s="1">
         <v>0.75</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1.7064699999999999E-2</v>
       </c>
       <c r="G15">
-        <f>B14</f>
         <v>500</v>
       </c>
-      <c r="H15" s="7">
-        <f>C14</f>
+      <c r="H15" s="5">
         <v>0.5</v>
       </c>
       <c r="I15" s="2">
-        <f>D14*1000</f>
         <v>17.727599999999999</v>
       </c>
     </row>
@@ -3881,19 +8579,16 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1.6737700000000001E-2</v>
       </c>
       <c r="G16">
-        <f>B15</f>
         <v>500</v>
       </c>
-      <c r="H16" s="7">
-        <f>C15</f>
+      <c r="H16" s="5">
         <v>0.75</v>
       </c>
       <c r="I16" s="2">
-        <f>D15*1000</f>
         <v>17.064699999999998</v>
       </c>
     </row>
@@ -3907,19 +8602,16 @@
       <c r="C17" s="1">
         <v>0.25</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>7.7533299999999999E-2</v>
       </c>
       <c r="G17">
-        <f>B16</f>
         <v>500</v>
       </c>
-      <c r="H17" s="7">
-        <f>C16</f>
+      <c r="H17" s="5">
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <f>D16*1000</f>
         <v>16.7377</v>
       </c>
     </row>
@@ -3933,19 +8625,16 @@
       <c r="C18" s="1">
         <v>0.5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>8.3290100000000006E-2</v>
       </c>
-      <c r="G18" s="9">
-        <f>B17</f>
+      <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18" s="10">
-        <f>C17</f>
+      <c r="H18" s="5">
         <v>0.25</v>
       </c>
-      <c r="I18" s="12">
-        <f>D17*1000</f>
+      <c r="I18" s="2">
         <v>77.533299999999997</v>
       </c>
     </row>
@@ -3959,23 +8648,20 @@
       <c r="C19" s="1">
         <v>0.75</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>8.0433099999999993E-2</v>
       </c>
       <c r="G19">
-        <f>B18</f>
         <v>1000</v>
       </c>
-      <c r="H19" s="7">
-        <f>C18</f>
+      <c r="H19" s="5">
         <v>0.5</v>
       </c>
       <c r="I19" s="2">
-        <f>D18*1000</f>
         <v>83.29010000000001</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3987,38 +8673,32 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>8.0311400000000005E-2</v>
       </c>
       <c r="G20">
-        <f>B19</f>
         <v>1000</v>
       </c>
-      <c r="H20" s="7">
-        <f>C19</f>
+      <c r="H20" s="5">
         <v>0.75</v>
       </c>
       <c r="I20" s="2">
-        <f>D19*1000</f>
         <v>80.433099999999996</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G21">
-        <f>B20</f>
         <v>1000</v>
       </c>
-      <c r="H21" s="7">
-        <f>C20</f>
+      <c r="H21" s="5">
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <f>D20*1000</f>
         <v>80.311400000000006</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4035,8 +8715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3016603-16BC-4E8E-A8B7-3BBC51E3E998}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +8738,7 @@
       <c r="C1" s="1">
         <v>0.25</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>1.4844999999999999E-5</v>
       </c>
       <c r="G1" t="s">
@@ -4081,19 +8761,16 @@
       <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.5193E-5</v>
       </c>
-      <c r="G2" s="9">
-        <f>B1</f>
+      <c r="G2" s="21">
         <v>10</v>
       </c>
-      <c r="H2" s="10">
-        <f>C1</f>
+      <c r="H2" s="5">
         <v>0.25</v>
       </c>
-      <c r="I2" s="11">
-        <f t="shared" ref="I2:I21" si="0">D1*1000</f>
+      <c r="I2" s="10">
         <v>1.4844999999999999E-2</v>
       </c>
     </row>
@@ -4107,19 +8784,16 @@
       <c r="C3" s="1">
         <v>0.75</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1.4939999999999999E-5</v>
       </c>
-      <c r="G3">
-        <f>B2</f>
+      <c r="G3" s="21">
         <v>10</v>
       </c>
-      <c r="H3" s="7">
-        <f>C2</f>
+      <c r="H3" s="5">
         <v>0.5</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
+      <c r="I3" s="10">
         <v>1.5193E-2</v>
       </c>
     </row>
@@ -4133,19 +8807,16 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1.5159E-5</v>
       </c>
-      <c r="G4">
-        <f>B3</f>
+      <c r="G4" s="21">
         <v>10</v>
       </c>
-      <c r="H4" s="7">
-        <f>C3</f>
+      <c r="H4" s="5">
         <v>0.75</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
+      <c r="I4" s="10">
         <v>1.4939999999999998E-2</v>
       </c>
     </row>
@@ -4159,19 +8830,16 @@
       <c r="C5" s="1">
         <v>0.25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3.4178799999999999E-4</v>
       </c>
-      <c r="G5">
-        <f>B4</f>
+      <c r="G5" s="21">
         <v>10</v>
       </c>
-      <c r="H5" s="7">
-        <f>C4</f>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
+      <c r="I5" s="10">
         <v>1.5159000000000001E-2</v>
       </c>
     </row>
@@ -4185,19 +8853,16 @@
       <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3.4368099999999998E-4</v>
       </c>
-      <c r="G6" s="9">
-        <f>B5</f>
+      <c r="G6" s="21">
         <v>50</v>
       </c>
-      <c r="H6" s="10">
-        <f>C5</f>
+      <c r="H6" s="5">
         <v>0.25</v>
       </c>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
+      <c r="I6" s="10">
         <v>0.34178799999999998</v>
       </c>
     </row>
@@ -4211,19 +8876,16 @@
       <c r="C7" s="1">
         <v>0.75</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>3.41503E-4</v>
       </c>
-      <c r="G7">
-        <f>B6</f>
+      <c r="G7" s="21">
         <v>50</v>
       </c>
-      <c r="H7" s="7">
-        <f>C6</f>
+      <c r="H7" s="5">
         <v>0.5</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
+      <c r="I7" s="10">
         <v>0.34368099999999996</v>
       </c>
     </row>
@@ -4237,19 +8899,16 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3.42412E-4</v>
       </c>
-      <c r="G8">
-        <f>B7</f>
+      <c r="G8" s="21">
         <v>50</v>
       </c>
-      <c r="H8" s="7">
-        <f>C7</f>
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
+      <c r="I8" s="10">
         <v>0.341503</v>
       </c>
     </row>
@@ -4263,19 +8922,16 @@
       <c r="C9" s="1">
         <v>0.25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1.64565E-3</v>
       </c>
-      <c r="G9">
-        <f>B8</f>
+      <c r="G9" s="21">
         <v>50</v>
       </c>
-      <c r="H9" s="7">
-        <f>C8</f>
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
+      <c r="I9" s="10">
         <v>0.34241199999999999</v>
       </c>
     </row>
@@ -4289,19 +8945,16 @@
       <c r="C10" s="1">
         <v>0.5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.82296E-3</v>
       </c>
-      <c r="G10" s="9">
-        <f>B9</f>
+      <c r="G10" s="21">
         <v>100</v>
       </c>
-      <c r="H10" s="10">
-        <f>C9</f>
+      <c r="H10" s="5">
         <v>0.25</v>
       </c>
-      <c r="I10" s="11">
-        <f t="shared" si="0"/>
+      <c r="I10" s="10">
         <v>1.6456500000000001</v>
       </c>
     </row>
@@ -4315,19 +8968,16 @@
       <c r="C11" s="1">
         <v>0.75</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1.6960199999999999E-3</v>
       </c>
-      <c r="G11">
-        <f>B10</f>
+      <c r="G11" s="21">
         <v>100</v>
       </c>
-      <c r="H11" s="7">
-        <f>C10</f>
+      <c r="H11" s="5">
         <v>0.5</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
+      <c r="I11" s="10">
         <v>1.8229599999999999</v>
       </c>
     </row>
@@ -4341,19 +8991,16 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1.39437E-3</v>
       </c>
-      <c r="G12">
-        <f>B11</f>
+      <c r="G12" s="21">
         <v>100</v>
       </c>
-      <c r="H12" s="7">
-        <f>C11</f>
+      <c r="H12" s="5">
         <v>0.75</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
+      <c r="I12" s="10">
         <v>1.6960199999999999</v>
       </c>
     </row>
@@ -4367,19 +9014,16 @@
       <c r="C13" s="1">
         <v>0.25</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>4.2960199999999997E-2</v>
       </c>
-      <c r="G13">
-        <f>B12</f>
+      <c r="G13" s="21">
         <v>100</v>
       </c>
-      <c r="H13" s="7">
-        <f>C12</f>
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
+      <c r="I13" s="10">
         <v>1.3943700000000001</v>
       </c>
     </row>
@@ -4393,19 +9037,16 @@
       <c r="C14" s="1">
         <v>0.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>4.1703299999999999E-2</v>
       </c>
-      <c r="G14" s="9">
-        <f>B13</f>
+      <c r="G14" s="21">
         <v>500</v>
       </c>
-      <c r="H14" s="10">
-        <f>C13</f>
+      <c r="H14" s="5">
         <v>0.25</v>
       </c>
-      <c r="I14" s="11">
-        <f t="shared" si="0"/>
+      <c r="I14" s="2">
         <v>42.9602</v>
       </c>
     </row>
@@ -4419,19 +9060,16 @@
       <c r="C15" s="1">
         <v>0.75</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>4.3350100000000003E-2</v>
       </c>
-      <c r="G15">
-        <f>B14</f>
+      <c r="G15" s="21">
         <v>500</v>
       </c>
-      <c r="H15" s="7">
-        <f>C14</f>
+      <c r="H15" s="5">
         <v>0.5</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
+      <c r="I15" s="2">
         <v>41.703299999999999</v>
       </c>
     </row>
@@ -4445,19 +9083,16 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>4.27219E-2</v>
       </c>
-      <c r="G16">
-        <f>B15</f>
+      <c r="G16" s="21">
         <v>500</v>
       </c>
-      <c r="H16" s="7">
-        <f>C15</f>
+      <c r="H16" s="5">
         <v>0.75</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
+      <c r="I16" s="2">
         <v>43.350100000000005</v>
       </c>
     </row>
@@ -4471,19 +9106,16 @@
       <c r="C17" s="1">
         <v>0.25</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.159082</v>
       </c>
-      <c r="G17">
-        <f>B16</f>
+      <c r="G17" s="21">
         <v>500</v>
       </c>
-      <c r="H17" s="7">
-        <f>C16</f>
+      <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
+      <c r="I17" s="2">
         <v>42.721899999999998</v>
       </c>
     </row>
@@ -4497,19 +9129,16 @@
       <c r="C18" s="1">
         <v>0.5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.16143199999999999</v>
       </c>
-      <c r="G18" s="9">
-        <f>B17</f>
+      <c r="G18" s="21">
         <v>1000</v>
       </c>
-      <c r="H18" s="10">
-        <f>C17</f>
+      <c r="H18" s="5">
         <v>0.25</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="0"/>
         <v>159.08199999999999</v>
       </c>
     </row>
@@ -4523,19 +9152,16 @@
       <c r="C19" s="1">
         <v>0.75</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.16669400000000001</v>
       </c>
-      <c r="G19">
-        <f>B18</f>
+      <c r="G19" s="21">
         <v>1000</v>
       </c>
-      <c r="H19" s="7">
-        <f>C18</f>
+      <c r="H19" s="5">
         <v>0.5</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
+      <c r="I19" s="11">
         <v>161.43199999999999</v>
       </c>
     </row>
@@ -4549,33 +9175,27 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.15133099999999999</v>
       </c>
-      <c r="G20">
-        <f>B19</f>
+      <c r="G20" s="21">
         <v>1000</v>
       </c>
-      <c r="H20" s="7">
-        <f>C19</f>
+      <c r="H20" s="5">
         <v>0.75</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
+      <c r="I20" s="11">
         <v>166.69400000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <f>B20</f>
+      <c r="G21" s="21">
         <v>1000</v>
       </c>
-      <c r="H21" s="7">
-        <f>C20</f>
+      <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
+      <c r="I21" s="11">
         <v>151.33099999999999</v>
       </c>
     </row>
@@ -4595,355 +9215,783 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970BCBD6-C70B-4F74-BD6E-23CFE1F62C3B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>0.25</v>
       </c>
-      <c r="C2">
-        <f>List!D1</f>
-        <v>6.6930000000000001E-6</v>
-      </c>
-      <c r="D2">
-        <f>Matrix!D1</f>
-        <v>1.4844999999999999E-5</v>
+      <c r="C2" s="9">
+        <f>List!D1*1000</f>
+        <v>6.6930000000000002E-3</v>
+      </c>
+      <c r="D2" s="9">
+        <f>Matrix!D1*1000</f>
+        <v>1.4844999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <f>List!D2</f>
-        <v>6.8560000000000001E-6</v>
-      </c>
-      <c r="D3">
-        <f>Matrix!D2</f>
-        <v>1.5193E-5</v>
+      <c r="C3" s="10">
+        <f>List!D2*1000</f>
+        <v>6.8560000000000001E-3</v>
+      </c>
+      <c r="D3" s="10">
+        <f>Matrix!D2*1000</f>
+        <v>1.5193E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.25</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <v>0.75</v>
       </c>
-      <c r="C4">
-        <f>List!D3</f>
-        <v>6.9589999999999998E-6</v>
-      </c>
-      <c r="D4">
-        <f>Matrix!D3</f>
-        <v>1.4939999999999999E-5</v>
-      </c>
+      <c r="C4" s="10">
+        <f>List!D3*1000</f>
+        <v>6.9589999999999999E-3</v>
+      </c>
+      <c r="D4" s="10">
+        <f>Matrix!D3*1000</f>
+        <v>1.4939999999999998E-2</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <f>List!D4</f>
-        <v>6.951E-6</v>
-      </c>
-      <c r="D5">
-        <f>Matrix!D4</f>
-        <v>1.5159E-5</v>
+      <c r="C5" s="10">
+        <f>List!D4*1000</f>
+        <v>6.9509999999999997E-3</v>
+      </c>
+      <c r="D5" s="10">
+        <f>Matrix!D4*1000</f>
+        <v>1.5159000000000001E-2</v>
+      </c>
+      <c r="K5" s="15">
+        <f>A2</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="16">
+        <f>C2</f>
+        <v>6.6930000000000002E-3</v>
+      </c>
+      <c r="M5" s="16">
+        <f>D2</f>
+        <v>1.4844999999999999E-2</v>
+      </c>
+      <c r="N5" s="17">
+        <f>M5/L5</f>
+        <v>2.2179889436724936</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>0.25</v>
       </c>
-      <c r="C6">
-        <f>List!D5</f>
-        <v>1.4601499999999999E-4</v>
-      </c>
-      <c r="D6">
-        <f>Matrix!D5</f>
-        <v>3.4178799999999999E-4</v>
+      <c r="C6" s="9">
+        <f>List!D5*1000</f>
+        <v>0.14601499999999998</v>
+      </c>
+      <c r="D6" s="9">
+        <f>Matrix!D5*1000</f>
+        <v>0.34178799999999998</v>
+      </c>
+      <c r="K6" s="18">
+        <f>A6</f>
+        <v>50</v>
+      </c>
+      <c r="L6" s="19">
+        <f>Tabela3[[#This Row],[Lista]]</f>
+        <v>0.14601499999999998</v>
+      </c>
+      <c r="M6" s="19">
+        <f>Tabela3[[#This Row],[Macierz]]</f>
+        <v>0.34178799999999998</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" ref="N6:N9" si="0">M6/L6</f>
+        <v>2.3407732082320312</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <f>List!D6</f>
-        <v>1.4708000000000001E-4</v>
-      </c>
-      <c r="D7">
-        <f>Matrix!D6</f>
-        <v>3.4368099999999998E-4</v>
+      <c r="C7" s="10">
+        <f>List!D6*1000</f>
+        <v>0.14708000000000002</v>
+      </c>
+      <c r="D7" s="10">
+        <f>Matrix!D6*1000</f>
+        <v>0.34368099999999996</v>
+      </c>
+      <c r="K7" s="15">
+        <f>A10</f>
+        <v>100</v>
+      </c>
+      <c r="L7" s="16">
+        <f>C10</f>
+        <v>0.57214500000000001</v>
+      </c>
+      <c r="M7" s="16">
+        <f>D10</f>
+        <v>1.6456500000000001</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8762813622420889</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8">
         <v>0.75</v>
       </c>
-      <c r="C8">
-        <f>List!D7</f>
-        <v>1.4563400000000001E-4</v>
-      </c>
-      <c r="D8">
-        <f>Matrix!D7</f>
-        <v>3.41503E-4</v>
+      <c r="C8" s="10">
+        <f>List!D7*1000</f>
+        <v>0.14563400000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <f>Matrix!D7*1000</f>
+        <v>0.341503</v>
+      </c>
+      <c r="K8" s="18">
+        <f>A14</f>
+        <v>500</v>
+      </c>
+      <c r="L8" s="19">
+        <f>C14</f>
+        <v>15.6998</v>
+      </c>
+      <c r="M8" s="19">
+        <f>D14</f>
+        <v>42.9602</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="0"/>
+        <v>2.736353329341775</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <f>List!D8</f>
-        <v>1.41538E-4</v>
-      </c>
-      <c r="D9">
-        <f>Matrix!D8</f>
-        <v>3.42412E-4</v>
+      <c r="C9" s="10">
+        <f>List!D8*1000</f>
+        <v>0.141538</v>
+      </c>
+      <c r="D9" s="10">
+        <f>Matrix!D8*1000</f>
+        <v>0.34241199999999999</v>
+      </c>
+      <c r="K9" s="15">
+        <f>A18</f>
+        <v>1000</v>
+      </c>
+      <c r="L9" s="16">
+        <f>C18</f>
+        <v>77.533299999999997</v>
+      </c>
+      <c r="M9" s="16">
+        <f>D18</f>
+        <v>159.08199999999999</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0517893601845918</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>100</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>0.25</v>
       </c>
-      <c r="C10">
-        <f>List!D9</f>
-        <v>5.7214500000000003E-4</v>
-      </c>
-      <c r="D10">
-        <f>Matrix!D9</f>
-        <v>1.64565E-3</v>
+      <c r="C10" s="9">
+        <f>List!D9*1000</f>
+        <v>0.57214500000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <f>Matrix!D9*1000</f>
+        <v>1.6456500000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <f>List!D10</f>
-        <v>5.7608699999999997E-4</v>
-      </c>
-      <c r="D11">
-        <f>Matrix!D10</f>
-        <v>1.82296E-3</v>
-      </c>
+      <c r="C11" s="10">
+        <f>List!D10*1000</f>
+        <v>0.57608700000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <f>Matrix!D10*1000</f>
+        <v>1.8229599999999999</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12">
         <v>0.75</v>
       </c>
-      <c r="C12">
-        <f>List!D11</f>
-        <v>5.8228100000000003E-4</v>
-      </c>
-      <c r="D12">
-        <f>Matrix!D11</f>
-        <v>1.6960199999999999E-3</v>
+      <c r="C12" s="10">
+        <f>List!D11*1000</f>
+        <v>0.58228100000000005</v>
+      </c>
+      <c r="D12" s="10">
+        <f>Matrix!D11*1000</f>
+        <v>1.6960199999999999</v>
+      </c>
+      <c r="K12" s="15">
+        <v>10</v>
+      </c>
+      <c r="L12" s="16">
+        <f>C3</f>
+        <v>6.8560000000000001E-3</v>
+      </c>
+      <c r="M12" s="16">
+        <f>D3</f>
+        <v>1.5193E-2</v>
+      </c>
+      <c r="N12" s="17">
+        <f>M12/L12</f>
+        <v>2.2160151691948657</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
-        <f>List!D12</f>
-        <v>5.8389399999999995E-4</v>
-      </c>
-      <c r="D13">
-        <f>Matrix!D12</f>
-        <v>1.39437E-3</v>
+      <c r="C13" s="10">
+        <f>List!D12*1000</f>
+        <v>0.58389399999999991</v>
+      </c>
+      <c r="D13" s="10">
+        <f>Matrix!D12*1000</f>
+        <v>1.3943700000000001</v>
+      </c>
+      <c r="K13" s="18">
+        <v>50</v>
+      </c>
+      <c r="L13" s="19">
+        <f>C7</f>
+        <v>0.14708000000000002</v>
+      </c>
+      <c r="M13" s="19">
+        <f>D7</f>
+        <v>0.34368099999999996</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" ref="N13:N16" si="1">M13/L13</f>
+        <v>2.3366943160184928</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>500</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>0.25</v>
       </c>
-      <c r="C14">
-        <f>List!D13</f>
-        <v>1.56998E-2</v>
-      </c>
-      <c r="D14">
-        <f>Matrix!D13</f>
-        <v>4.2960199999999997E-2</v>
+      <c r="C14" s="9">
+        <f>List!D13*1000</f>
+        <v>15.6998</v>
+      </c>
+      <c r="D14" s="9">
+        <f>Matrix!D13*1000</f>
+        <v>42.9602</v>
+      </c>
+      <c r="K14" s="15">
+        <v>100</v>
+      </c>
+      <c r="L14" s="16">
+        <f>C11</f>
+        <v>0.57608700000000002</v>
+      </c>
+      <c r="M14" s="16">
+        <f>D11</f>
+        <v>1.8229599999999999</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
+        <v>3.1643831574050445</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>500</v>
       </c>
       <c r="B15">
         <v>0.5</v>
       </c>
-      <c r="C15">
-        <f>List!D14</f>
-        <v>1.77276E-2</v>
-      </c>
-      <c r="D15">
-        <f>Matrix!D14</f>
-        <v>4.1703299999999999E-2</v>
+      <c r="C15" s="10">
+        <f>List!D14*1000</f>
+        <v>17.727599999999999</v>
+      </c>
+      <c r="D15" s="10">
+        <f>Matrix!D14*1000</f>
+        <v>41.703299999999999</v>
+      </c>
+      <c r="K15" s="18">
+        <v>500</v>
+      </c>
+      <c r="L15" s="19">
+        <f>Tabela3[[#This Row],[Lista]]</f>
+        <v>17.727599999999999</v>
+      </c>
+      <c r="M15" s="19">
+        <f>Tabela3[[#This Row],[Macierz]]</f>
+        <v>41.703299999999999</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3524504163000066</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>500</v>
       </c>
       <c r="B16">
         <v>0.75</v>
       </c>
-      <c r="C16">
-        <f>List!D15</f>
-        <v>1.7064699999999999E-2</v>
-      </c>
-      <c r="D16">
-        <f>Matrix!D15</f>
-        <v>4.3350100000000003E-2</v>
+      <c r="C16" s="10">
+        <f>List!D15*1000</f>
+        <v>17.064699999999998</v>
+      </c>
+      <c r="D16" s="10">
+        <f>Matrix!D15*1000</f>
+        <v>43.350100000000005</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="16">
+        <f>C19</f>
+        <v>83.29010000000001</v>
+      </c>
+      <c r="M16" s="16">
+        <f>D19</f>
+        <v>161.43199999999999</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" si="1"/>
+        <v>1.9381895327295797</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>500</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <f>List!D16</f>
-        <v>1.6737700000000001E-2</v>
-      </c>
-      <c r="D17">
-        <f>Matrix!D16</f>
-        <v>4.27219E-2</v>
+      <c r="C17" s="10">
+        <f>List!D16*1000</f>
+        <v>16.7377</v>
+      </c>
+      <c r="D17" s="10">
+        <f>Matrix!D16*1000</f>
+        <v>42.721899999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>1000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>0.25</v>
       </c>
-      <c r="C18">
-        <f>List!D17</f>
-        <v>7.7533299999999999E-2</v>
-      </c>
-      <c r="D18">
-        <f>Matrix!D17</f>
-        <v>0.159082</v>
-      </c>
+      <c r="C18" s="9">
+        <f>List!D17*1000</f>
+        <v>77.533299999999997</v>
+      </c>
+      <c r="D18" s="9">
+        <f>Matrix!D17*1000</f>
+        <v>159.08199999999999</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1000</v>
       </c>
       <c r="B19">
         <v>0.5</v>
       </c>
-      <c r="C19">
-        <f>List!D18</f>
-        <v>8.3290100000000006E-2</v>
-      </c>
-      <c r="D19">
-        <f>Matrix!D18</f>
-        <v>0.16143199999999999</v>
+      <c r="C19" s="10">
+        <f>List!D18*1000</f>
+        <v>83.29010000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <f>Matrix!D18*1000</f>
+        <v>161.43199999999999</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10</v>
+      </c>
+      <c r="L19" s="16">
+        <f>C4</f>
+        <v>6.9589999999999999E-3</v>
+      </c>
+      <c r="M19" s="16">
+        <f>D4</f>
+        <v>1.4939999999999998E-2</v>
+      </c>
+      <c r="N19" s="17">
+        <f>M19/L19</f>
+        <v>2.146860181060497</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000</v>
       </c>
       <c r="B20">
         <v>0.75</v>
       </c>
-      <c r="C20">
-        <f>List!D19</f>
-        <v>8.0433099999999993E-2</v>
-      </c>
-      <c r="D20">
-        <f>Matrix!D19</f>
-        <v>0.16669400000000001</v>
+      <c r="C20" s="10">
+        <f>List!D19*1000</f>
+        <v>80.433099999999996</v>
+      </c>
+      <c r="D20" s="10">
+        <f>Matrix!D19*1000</f>
+        <v>166.69400000000002</v>
+      </c>
+      <c r="K20" s="18">
+        <v>50</v>
+      </c>
+      <c r="L20" s="19">
+        <f>C8</f>
+        <v>0.14563400000000001</v>
+      </c>
+      <c r="M20" s="19">
+        <f>D8</f>
+        <v>0.341503</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" ref="N20:N23" si="2">M20/L20</f>
+        <v>2.3449400552068882</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1000</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <f>List!D20</f>
-        <v>8.0311400000000005E-2</v>
-      </c>
-      <c r="D21">
-        <f>Matrix!D20</f>
-        <v>0.15133099999999999</v>
+      <c r="C21" s="10">
+        <f>List!D20*1000</f>
+        <v>80.311400000000006</v>
+      </c>
+      <c r="D21" s="10">
+        <f>Matrix!D20*1000</f>
+        <v>151.33099999999999</v>
+      </c>
+      <c r="K21" s="15">
+        <v>100</v>
+      </c>
+      <c r="L21" s="16">
+        <f>C12</f>
+        <v>0.58228100000000005</v>
+      </c>
+      <c r="M21" s="16">
+        <f>D12</f>
+        <v>1.6960199999999999</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="2"/>
+        <v>2.9127173993312501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="18">
+        <v>500</v>
+      </c>
+      <c r="L22" s="19">
+        <f>C16</f>
+        <v>17.064699999999998</v>
+      </c>
+      <c r="M22" s="19">
+        <f>D16</f>
+        <v>43.350100000000005</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5403376560970896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K23" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="16">
+        <f>C20</f>
+        <v>80.433099999999996</v>
+      </c>
+      <c r="M23" s="16">
+        <f>D20</f>
+        <v>166.69400000000002</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="2"/>
+        <v>2.0724552454151342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="12"/>
+      <c r="L25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K26" s="15">
+        <v>10</v>
+      </c>
+      <c r="L26" s="16">
+        <f>C5</f>
+        <v>6.9509999999999997E-3</v>
+      </c>
+      <c r="M26" s="16">
+        <f>D5</f>
+        <v>1.5159000000000001E-2</v>
+      </c>
+      <c r="N26" s="17">
+        <f>M26/L26</f>
+        <v>2.1808372895986192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K27" s="18">
+        <v>50</v>
+      </c>
+      <c r="L27" s="19">
+        <f>C9</f>
+        <v>0.141538</v>
+      </c>
+      <c r="M27" s="19">
+        <f>D9</f>
+        <v>0.34241199999999999</v>
+      </c>
+      <c r="N27" s="20">
+        <f t="shared" ref="N27:N30" si="3">M27/L27</f>
+        <v>2.4192231061623026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="15">
+        <v>100</v>
+      </c>
+      <c r="L28" s="16">
+        <f>C13</f>
+        <v>0.58389399999999991</v>
+      </c>
+      <c r="M28" s="16">
+        <f>D13</f>
+        <v>1.3943700000000001</v>
+      </c>
+      <c r="N28" s="17">
+        <f t="shared" si="3"/>
+        <v>2.3880533110461837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K29" s="18">
+        <v>500</v>
+      </c>
+      <c r="L29" s="19">
+        <f>C17</f>
+        <v>16.7377</v>
+      </c>
+      <c r="M29" s="19">
+        <f>D17</f>
+        <v>42.721899999999998</v>
+      </c>
+      <c r="N29" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5524355198145501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K30" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="16">
+        <f>C21</f>
+        <v>80.311400000000006</v>
+      </c>
+      <c r="M30" s="16">
+        <f>D21</f>
+        <v>151.33099999999999</v>
+      </c>
+      <c r="N30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.8843028511518909</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:N11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>